--- a/Pareto.xlsx
+++ b/Pareto.xlsx
@@ -31,12 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>cumuléé</t>
-  </si>
-  <si>
-    <t>%cumulé</t>
-  </si>
-  <si>
     <t>Manettes</t>
   </si>
   <si>
@@ -52,22 +46,28 @@
     <t>Distrubiteur</t>
   </si>
   <si>
-    <t>Verins</t>
-  </si>
-  <si>
     <t>Filtres</t>
-  </si>
-  <si>
-    <t>Orientation</t>
-  </si>
-  <si>
-    <t>Méthode de Pareto sur la criticité des composants Hydraulique</t>
   </si>
   <si>
     <t>Barbotins</t>
   </si>
   <si>
     <t>Pompes Principales</t>
+  </si>
+  <si>
+    <t>Vérins</t>
+  </si>
+  <si>
+    <t>Méthode de Pareto sur la criticité des composants Hydrauliques</t>
+  </si>
+  <si>
+    <t>cumulée</t>
+  </si>
+  <si>
+    <t>% cumulé</t>
+  </si>
+  <si>
+    <t>Moteur d'orientation</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,21 +141,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -188,23 +206,6 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Diagramme de Pareto de Criticité </a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{79FCFBE1-9A60-4145-A7DD-51548FA0663F}">
@@ -237,7 +238,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Composabt Hydraulique</a:t>
+                  <a:t>Composants Hydrauliques</a:t>
                 </a:r>
               </a:p>
             </cx:rich>
@@ -832,15 +833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -906,15 +907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -929,8 +930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="2238375"/>
-          <a:ext cx="1323976" cy="1099185"/>
+          <a:off x="6686550" y="1085851"/>
+          <a:ext cx="1323975" cy="1771649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:M28"/>
+  <dimension ref="B6:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,31 +1285,31 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>18</v>
@@ -1321,9 +1322,9 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>18</v>
@@ -1337,9 +1338,9 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -1353,9 +1354,9 @@
         <v>0.64864864864864868</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -1369,9 +1370,9 @@
         <v>0.77027027027027029</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>6</v>
@@ -1385,9 +1386,9 @@
         <v>0.85135135135135132</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1400,10 +1401,11 @@
         <f t="shared" si="0"/>
         <v>0.90540540540540537</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -1417,9 +1419,9 @@
         <v>0.95945945945945943</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1433,111 +1435,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
   </sheetData>
   <sortState ref="C8:F14">
     <sortCondition descending="1" ref="D7:D14"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H23:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Pareto.xlsx
+++ b/Pareto.xlsx
@@ -18,6 +18,9 @@
     <definedName name="_xlchart.v1.0" hidden="1">Preto!$C$8:$C$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Preto!$D$7</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$8:$D$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Preto!$C$8:$C$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Preto!$D$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Preto!$D$8:$D$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,16 +61,16 @@
     <t>Vérins</t>
   </si>
   <si>
-    <t>Méthode de Pareto sur la criticité des composants Hydrauliques</t>
-  </si>
-  <si>
-    <t>cumulée</t>
-  </si>
-  <si>
     <t>% cumulé</t>
   </si>
   <si>
     <t>Moteur d'orientation</t>
+  </si>
+  <si>
+    <t>criticité cumulée</t>
+  </si>
+  <si>
+    <t>Méthode de Pareto sur la partie hydrauliques de ZX330-3</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -175,6 +178,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,10 +842,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177165</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -915,7 +919,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -931,7 +935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6686550" y="1085851"/>
-          <a:ext cx="1323975" cy="1771649"/>
+          <a:ext cx="1323975" cy="1790699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,7 +1277,7 @@
   <dimension ref="B6:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,24 +1291,24 @@
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1421,7 +1425,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1515,6 +1519,7 @@
     <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pareto.xlsx
+++ b/Pareto.xlsx
@@ -18,9 +18,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">Preto!$C$8:$C$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Preto!$D$7</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$8:$D$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Preto!$C$8:$C$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Preto!$D$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Preto!$D$8:$D$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -175,10 +172,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,24 +1287,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
